--- a/clo-angular/src/assets/albums/fullsize/album_02/Volume2.xlsx
+++ b/clo-angular/src/assets/albums/fullsize/album_02/Volume2.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stella/clo3/clo-angular/src/assets/albums/fullsize/album_02/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48550272-7DB3-DB40-8635-438BEB901A0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="248">
   <si>
     <t>title_of_work</t>
   </si>
@@ -67,9 +76,6 @@
     <t>Page 1</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 1</t>
-  </si>
-  <si>
     <t>Photograph of seated Elizabeth Countess of Pepoli, with written inscription reading, "These things I mark, mournfully, as a kind of duty - this evg. Monday 7 Octb. 1867. - T. C." Photograph labeled: "Elizth Countess Pepoli (once Elizth Fergus of Kirkcaldy)."</t>
   </si>
   <si>
@@ -112,9 +118,6 @@
     <t>Page 2</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 2</t>
-  </si>
-  <si>
     <t>Photograph of a standing man; handwritten inscription reads "Thos: Wollner," with the inscription "The Sculptor" added by Carlyle.</t>
   </si>
   <si>
@@ -127,9 +130,6 @@
     <t>Page 3</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 3</t>
-  </si>
-  <si>
     <t>Photograph of a standing woman, inscription reads "Miss Williams Wynn."</t>
   </si>
   <si>
@@ -142,9 +142,6 @@
     <t>Page 4</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 4</t>
-  </si>
-  <si>
     <t>Photograph of "Blanche (Stanley) Countess of Airlie" standing in left profile with cane. Handwritten inscription reads "Blanche (Stanley) Countess of Airlie."</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>Page 5</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 5</t>
-  </si>
-  <si>
     <t>Photograph of a man seated at desk; inscription reads "Ld Airlie."</t>
   </si>
   <si>
@@ -172,9 +166,6 @@
     <t>Page 6</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 6</t>
-  </si>
-  <si>
     <t>Photograph of a seated woman with curtains in background. Inscription reads "Maude Stanley (of Alderley)."</t>
   </si>
   <si>
@@ -187,9 +178,6 @@
     <t>Page 7</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 7</t>
-  </si>
-  <si>
     <t>Photograph of a woman standing in partial profile, with a painted natural background. Inscription reads, "Kate Stanley (I think?)"</t>
   </si>
   <si>
@@ -202,9 +190,6 @@
     <t>Page 8</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Photograph of a woman standing in partial profile, with chair. While there is no written inscription, the woman could be one of the Stanleys, potentially Maude (pictured two pages previously in original photo album). </t>
   </si>
   <si>
@@ -214,9 +199,6 @@
     <t>Page 9</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 9</t>
-  </si>
-  <si>
     <t>Partially faded photograph of a man standing, with a chair. Inscription reads "Hon. Arthur Russell."</t>
   </si>
   <si>
@@ -229,9 +211,6 @@
     <t>Page 10</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 10</t>
-  </si>
-  <si>
     <t>Photograph of a standing woman with a young boy to her left, in front of a hearth and bust. Inscription reads, "Blanche (Stanley) agn [not good]."</t>
   </si>
   <si>
@@ -241,9 +220,6 @@
     <t>Page 11</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Photograph of a woman kneeling with two dogs, with the dogs on their hind legs. Inscription on the page reads, "Kate Stanley (Lady Amberley [illeg])." Inscription on the photograph, in a different hand, reads  "Kate. Reinecke. Argos." </t>
   </si>
   <si>
@@ -253,9 +229,6 @@
     <t>Page 12</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 12</t>
-  </si>
-  <si>
     <t>Photograph of a man and woman, standing. Inscription reads, "Kate and her Amberley."</t>
   </si>
   <si>
@@ -268,9 +241,6 @@
     <t>Page 13</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 13</t>
-  </si>
-  <si>
     <t xml:space="preserve">Photograph of a woman standing in profile behind a man, seated, in front of a window. Inscription reads, "Rosalind (youngest of the Stanleys) and her Husband the Hon. _____ Howard (Earl of Carlisle that may be)." </t>
   </si>
   <si>
@@ -286,9 +256,6 @@
     <t>Page 14</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 14</t>
-  </si>
-  <si>
     <t>Photograph of a man standing by a desk and chair, head in left hand. Inscription reads, "To Jane W. Carlyle / Jos. Mazzini"</t>
   </si>
   <si>
@@ -301,9 +268,6 @@
     <t>Page 15</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 15</t>
-  </si>
-  <si>
     <t>Photograph of a man standing, with chair. Inscription in a different hand reads, "John George Cooke."</t>
   </si>
   <si>
@@ -316,9 +280,6 @@
     <t>Page 16</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 16</t>
-  </si>
-  <si>
     <t xml:space="preserve">Photograph of a man standing, in front of a curtain, inscribed in another hand: "Edward C. Sterling." Thomas Carlyle adds "John's eldest son." </t>
   </si>
   <si>
@@ -331,9 +292,6 @@
     <t>Page 17</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 17</t>
-  </si>
-  <si>
     <t>Photograph of a seated woman, holding infant daughter, inscribed "Mrs Symons (nee Miss Barnes--Dr's daughter)."</t>
   </si>
   <si>
@@ -343,9 +301,6 @@
     <t>Page 18</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 18</t>
-  </si>
-  <si>
     <t>Photograph of a woman standing, with hand to her chin. Inscription reads, "Miss Cushman (the Actress)."</t>
   </si>
   <si>
@@ -358,9 +313,6 @@
     <t>Page 19</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 19</t>
-  </si>
-  <si>
     <t>Photograph of a man, seated with head in left hand. Printed inscription reads: "DR COLENSO LORD BISHOP OF NATAL."</t>
   </si>
   <si>
@@ -373,9 +325,6 @@
     <t>Page 20</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 20</t>
-  </si>
-  <si>
     <t>Photograph of a man standing, with a chair. Inscription reads, " J A Froude / May I come to tea on Friday?"</t>
   </si>
   <si>
@@ -388,9 +337,6 @@
     <t>Page 21</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 21</t>
-  </si>
-  <si>
     <t>Photograph of two women reading together, one seated, one kneeling. Inscription reads, "Young Misses Dickens (I think?)" / "[Georgina Hogarth and her niece eldest Miss Dickens.] A.C."</t>
   </si>
   <si>
@@ -406,9 +352,6 @@
     <t>Page 22</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 22</t>
-  </si>
-  <si>
     <t>Partially faded photograph of a young girl. Inscription reads, "Hon. Mary Baring (Ld A's one child)."</t>
   </si>
   <si>
@@ -421,9 +364,6 @@
     <t>Page 23</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 23</t>
-  </si>
-  <si>
     <t>Photograph of a young girl standing on a box, by a table. Inscrption reads, "Little Mary Baring agn."</t>
   </si>
   <si>
@@ -433,9 +373,6 @@
     <t>Page 24</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 24</t>
-  </si>
-  <si>
     <t>Photograph of a man, seated and reading. Inscription in a different hand reads, "Gerald Blunt" and Thomas Carlyle adds "Blunt, rector of Chelsea."</t>
   </si>
   <si>
@@ -448,9 +385,6 @@
     <t>Page 25</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 25</t>
-  </si>
-  <si>
     <t>Photograph of a man, seated with cane. Inscription reads, "Hon. W. [sic] Ellis (called 'Bear Ellis') M.P.&amp;c--very like."</t>
   </si>
   <si>
@@ -460,9 +394,6 @@
     <t>Page 26</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 26</t>
-  </si>
-  <si>
     <t>Photograph of a woman standing, with head in left hand. Inscription reads, "Rosalind Stanley (since Mrs Howard)."</t>
   </si>
   <si>
@@ -472,9 +403,6 @@
     <t>Page 28</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 28</t>
-  </si>
-  <si>
     <t>Photograph of a woman standing and smiling, with a very young girl held at her shoulder. Inscription reads, "Dowr Lady Ashburton &amp; her little Mary (above)-"</t>
   </si>
   <si>
@@ -487,9 +415,6 @@
     <t>Page 29</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 29</t>
-  </si>
-  <si>
     <t>Photograph of a man seated, leaning forward. Inscription reads, "John Forster (Man of Letters, &amp;c &amp;c).--very like."</t>
   </si>
   <si>
@@ -502,9 +427,6 @@
     <t>Page 30</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 30</t>
-  </si>
-  <si>
     <t>Photograph of a woman standing in left profile, reading a large paper, facing a man seated in right profile. Inscription reads, "Sir Walter Trevellyan, &amp; his (first) wife:--(in Devonshire with us; ah me!)."</t>
   </si>
   <si>
@@ -520,9 +442,6 @@
     <t>Page 31</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 31</t>
-  </si>
-  <si>
     <t xml:space="preserve">Photograph of a woman in left profile, inscribed in a different hand: "Alice Hill." Thomas Carlyle adds "Marquess of Downshire's eldest Beauty- ." </t>
   </si>
   <si>
@@ -535,9 +454,6 @@
     <t>Page 32</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 32</t>
-  </si>
-  <si>
     <t>Photograph of a woman standing, eyes downcast. Inscription reads, "Mrs Dilberoglu (English, Sheffield.)"</t>
   </si>
   <si>
@@ -547,9 +463,6 @@
     <t>Page 33</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 33</t>
-  </si>
-  <si>
     <t>Photograph of a seated man in partial right profile, with a curtain in the background. Inscription reads, "Mr Dilberoglu (Greek, of Chios)"</t>
   </si>
   <si>
@@ -562,9 +475,6 @@
     <t>Page 34</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 34</t>
-  </si>
-  <si>
     <t>Photograph of a man standing, by desk and a small statue. Inscribed in a different hand: "Charles Dickens"; Thomas Carlyle adds "i.e. Charles Dickens"</t>
   </si>
   <si>
@@ -577,9 +487,6 @@
     <t>Page 35</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 35</t>
-  </si>
-  <si>
     <t>Photograph of woman standing, by a desk. Inscription reads, "Miss Davenport Bromley, --like."</t>
   </si>
   <si>
@@ -589,9 +496,6 @@
     <t>Page 36</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 36</t>
-  </si>
-  <si>
     <t xml:space="preserve">Photograph of a dog, seated on a chair. Inscription reads, "Miss Bromley's Dog 'Spark'." </t>
   </si>
   <si>
@@ -601,9 +505,6 @@
     <t>Page 37</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 37</t>
-  </si>
-  <si>
     <t>Photograph of a man standing, with cane. Inscription reads, "The Lord Stanley of Alderley."</t>
   </si>
   <si>
@@ -616,9 +517,6 @@
     <t>Page 38</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 38</t>
-  </si>
-  <si>
     <t>Photograph of a seated woman, with the inscription "The Lady Stanley of &amp;c."</t>
   </si>
   <si>
@@ -631,9 +529,6 @@
     <t>Page 39</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 39</t>
-  </si>
-  <si>
     <t xml:space="preserve">Photograph of a woman seated in a garden, in front of a window. Inscribed in a different hand: "HM Stanley of Alderley"; Thomas Carlyle adds "do / i.e. H.M. Sta - - - / Henrietta Maria." </t>
   </si>
   <si>
@@ -646,9 +541,6 @@
     <t>Page 40</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 40</t>
-  </si>
-  <si>
     <t>Photograph of a woman standing in partial right profile. Inscription reads, "Mrs John Forster."</t>
   </si>
   <si>
@@ -661,9 +553,6 @@
     <t>Page 41</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 41</t>
-  </si>
-  <si>
     <t>Photograph of a man standing in partial left profile, with cane. Inscription reads, "Hon.--Byng; called 'Poodle' Byng."</t>
   </si>
   <si>
@@ -676,9 +565,6 @@
     <t>Page 42</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 42</t>
-  </si>
-  <si>
     <t>Photograph of a woman standing, with a hat in hand. Inscription reads, "Mrs Mackenzie (widow, Sister-in-Law of Dowr Lady Ashbn) -."</t>
   </si>
   <si>
@@ -688,9 +574,6 @@
     <t>Page 43</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 43</t>
-  </si>
-  <si>
     <t>Photograph of a seated man, with inscription: "--Story, American Sculptor &amp;c (dilettant par excellence; sings well)--" [William Wetmore Story]</t>
   </si>
   <si>
@@ -703,9 +586,6 @@
     <t>Page 46</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 46</t>
-  </si>
-  <si>
     <t>Photograph of man standing in partial left profile, with inscription: "Ld George Hill (of Gweedore &amp;c, Marquess of Downshire [illegible])."</t>
   </si>
   <si>
@@ -718,9 +598,6 @@
     <t>Page 47</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 47</t>
-  </si>
-  <si>
     <t xml:space="preserve">Photograph of a woman standing in right profile, reading a small book with inscription:" for Mrs Carlyle" in a different hand; Thomas Carlyle adds "Mrs Thos Woolner." </t>
   </si>
   <si>
@@ -733,9 +610,6 @@
     <t>Page 48</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 48</t>
-  </si>
-  <si>
     <t>Photograph of a man in partial left profile, inscribed in a different hand: "John S. Mill"; Thomas Carlyle adds "(!)"</t>
   </si>
   <si>
@@ -748,35 +622,157 @@
     <t>Page 49</t>
   </si>
   <si>
-    <t>Carlyle Photograph Albums, Volume 2, Page 49</t>
-  </si>
-  <si>
     <t>Photograph of a woman, standing in front of a large, ornate mirror and a large urn. Inscription reads, "Madame Elise (I think); a fashionable Dress-maker, whom she thot a real artist, and who valued her approval in a marked manner."</t>
   </si>
   <si>
     <t>Alternative title: Tales of the Sun, 1912</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 1</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 2</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 3</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 4</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 5</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 6</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 7</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 8</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 9</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 10</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 11</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 12</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 13</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 14</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 15</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 16</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 17</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 18</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 19</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 20</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 21</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 22</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 23</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 24</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 25</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 26</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 28</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 29</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 30</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 31</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 32</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 33</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 34</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 35</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 36</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 37</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 38</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 39</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 40</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 41</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 42</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 43</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 46</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 47</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 48</t>
+  </si>
+  <si>
+    <t>Carlyle Photograph Albums, Album 2, Page 49</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -877,44 +873,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,25 +897,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffececec"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFECECEC"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1143,7 +1177,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1162,7 +1196,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1192,7 +1226,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1218,7 +1252,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1244,7 +1278,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1270,7 +1304,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1296,7 +1330,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1322,7 +1356,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1348,7 +1382,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1374,7 +1408,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1400,7 +1434,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1413,9 +1447,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1432,7 +1472,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1451,7 +1491,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1477,7 +1517,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1503,7 +1543,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1529,7 +1569,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1555,7 +1595,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1581,7 +1621,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1607,7 +1647,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1633,7 +1673,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1659,7 +1699,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1685,7 +1725,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1698,9 +1738,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1714,7 +1760,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1733,7 +1779,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1763,7 +1809,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1789,7 +1835,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1815,7 +1861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1841,7 +1887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1867,7 +1913,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1893,7 +1939,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1919,7 +1965,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1945,7 +1991,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1971,7 +2017,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1984,2721 +2030,2730 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.35156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="127.672" style="1" customWidth="1"/>
-    <col min="5" max="21" width="8.85156" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="2" width="3.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="127.6640625" style="1" customWidth="1"/>
+    <col min="5" max="22" width="8.83203125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:21" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="5">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="6">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="6">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="6">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s" s="6">
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s" s="6">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s" s="6">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s" s="6">
+      <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="6">
+      <c r="L1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s" s="6">
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s" s="6">
+      <c r="N1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s" s="6">
+      <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s" s="6">
+      <c r="P1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s" s="6">
+      <c r="Q1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s" s="6">
+      <c r="R1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s" s="6">
+      <c r="S1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s" s="6">
+      <c r="T1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s" s="6">
+      <c r="U1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="7">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="E2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s" s="6">
-        <v>20</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" t="s" s="6">
+      <c r="I2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s" s="6">
+      <c r="K2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s" s="9">
+      <c r="L2" s="8"/>
+      <c r="M2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" t="s" s="6">
+      <c r="N2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s" s="6">
+      <c r="O2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s" s="6">
+      <c r="P2" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P2" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q2" s="10">
         <v>2018</v>
       </c>
-      <c r="R2" t="s" s="6">
+      <c r="R2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s" s="6">
+      <c r="T2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T2" t="s" s="6">
+      <c r="U2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U2" t="s" s="6">
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s" s="6">
+      <c r="C3" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s" s="6">
-        <v>35</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" t="s" s="6">
+      <c r="I3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s" s="6">
+      <c r="K3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s" s="9">
+      <c r="L3" s="8"/>
+      <c r="M3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s" s="6">
+      <c r="N3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P3" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q3" s="10">
         <v>2018</v>
       </c>
-      <c r="R3" t="s" s="6">
+      <c r="R3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S3" t="s" s="6">
+      <c r="T3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T3" t="s" s="6">
+      <c r="U3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U3" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>40</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" t="s" s="6">
+      <c r="I4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="s" s="6">
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s" s="9">
+      <c r="L4" s="8"/>
+      <c r="M4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N4" t="s" s="6">
-        <v>41</v>
-      </c>
-      <c r="O4" t="s" s="6">
+      <c r="N4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P4" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q4" s="10">
         <v>2018</v>
       </c>
-      <c r="R4" t="s" s="6">
+      <c r="R4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S4" t="s" s="6">
+      <c r="T4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T4" t="s" s="6">
+      <c r="U4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U4" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s" s="6">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s" s="6">
-        <v>45</v>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" t="s" s="6">
+      <c r="I5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s" s="6">
+      <c r="K5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K5" t="s" s="9">
+      <c r="L5" s="8"/>
+      <c r="M5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N5" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="O5" t="s" s="6">
+      <c r="N5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P5" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q5" s="10">
         <v>2018</v>
       </c>
-      <c r="R5" t="s" s="6">
+      <c r="R5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S5" t="s" s="6">
+      <c r="T5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T5" t="s" s="6">
+      <c r="U5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U5" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="6">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s" s="6">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s" s="6">
-        <v>50</v>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" t="s" s="6">
+      <c r="I6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J6" t="s" s="6">
+      <c r="K6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K6" t="s" s="9">
+      <c r="L6" s="8"/>
+      <c r="M6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s" s="6">
-        <v>51</v>
-      </c>
-      <c r="O6" t="s" s="6">
+      <c r="N6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P6" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q6" s="10">
         <v>2018</v>
       </c>
-      <c r="R6" t="s" s="6">
+      <c r="R6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S6" t="s" s="6">
+      <c r="T6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T6" t="s" s="6">
+      <c r="U6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U6" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="6">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s" s="6">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s" s="6">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s" s="6">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s" s="6">
-        <v>55</v>
+      <c r="B7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" t="s" s="6">
+      <c r="I7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J7" t="s" s="6">
+      <c r="K7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K7" t="s" s="9">
+      <c r="L7" s="8"/>
+      <c r="M7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N7" t="s" s="6">
-        <v>56</v>
-      </c>
-      <c r="O7" t="s" s="6">
+      <c r="N7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P7" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q7" s="10">
         <v>2018</v>
       </c>
-      <c r="R7" t="s" s="6">
+      <c r="R7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S7" t="s" s="6">
+      <c r="T7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T7" t="s" s="6">
+      <c r="U7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U7" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="6">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s" s="6">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s" s="6">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s" s="6">
-        <v>60</v>
+      <c r="B8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" t="s" s="6">
+      <c r="I8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J8" t="s" s="6">
+      <c r="K8" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="K8" t="s" s="9">
-        <v>23</v>
       </c>
       <c r="L8" s="10">
         <v>1863</v>
       </c>
-      <c r="M8" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N8" t="s" s="6">
-        <v>61</v>
-      </c>
-      <c r="O8" t="s" s="6">
+      <c r="M8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P8" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q8" s="10">
         <v>2018</v>
       </c>
-      <c r="R8" t="s" s="6">
+      <c r="R8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S8" t="s" s="6">
+      <c r="T8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T8" t="s" s="6">
+      <c r="U8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U8" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="6">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="6">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s" s="6">
-        <v>63</v>
-      </c>
-      <c r="D9" t="s" s="6">
-        <v>64</v>
-      </c>
-      <c r="E9" t="s" s="6">
+      <c r="B9" s="6" t="s">
         <v>55</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" t="s" s="6">
+      <c r="I9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J9" t="s" s="6">
+      <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K9" t="s" s="9">
+      <c r="L9" s="8"/>
+      <c r="M9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N9" t="s" s="6">
-        <v>65</v>
-      </c>
-      <c r="O9" t="s" s="6">
+      <c r="N9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P9" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q9" s="10">
         <v>2018</v>
       </c>
-      <c r="R9" t="s" s="6">
+      <c r="R9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S9" t="s" s="6">
+      <c r="T9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T9" t="s" s="6">
+      <c r="U9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U9" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="6">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s" s="6">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s" s="6">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s" s="6">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s" s="6">
-        <v>69</v>
+      <c r="B10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" t="s" s="6">
+      <c r="I10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J10" t="s" s="6">
+      <c r="K10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K10" t="s" s="9">
+      <c r="L10" s="8"/>
+      <c r="M10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N10" t="s" s="6">
-        <v>70</v>
-      </c>
-      <c r="O10" t="s" s="6">
+      <c r="N10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P10" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q10" s="10">
         <v>2018</v>
       </c>
-      <c r="R10" t="s" s="6">
+      <c r="R10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S10" t="s" s="6">
+      <c r="T10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T10" t="s" s="6">
+      <c r="U10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U10" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="6">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s" s="6">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s" s="6">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s" s="6">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s" s="6">
-        <v>45</v>
+      <c r="B11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" t="s" s="6">
+      <c r="I11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J11" t="s" s="6">
+      <c r="K11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K11" t="s" s="9">
+      <c r="L11" s="8"/>
+      <c r="M11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N11" t="s" s="6">
-        <v>74</v>
-      </c>
-      <c r="O11" t="s" s="6">
+      <c r="N11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P11" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q11" s="10">
         <v>2018</v>
       </c>
-      <c r="R11" t="s" s="6">
+      <c r="R11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S11" t="s" s="6">
+      <c r="T11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T11" t="s" s="6">
+      <c r="U11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U11" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="6">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s" s="6">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="D12" t="s" s="6">
-        <v>77</v>
-      </c>
-      <c r="E12" t="s" s="6">
-        <v>60</v>
+      <c r="B12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" t="s" s="6">
+      <c r="I12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J12" t="s" s="6">
+      <c r="K12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K12" t="s" s="9">
+      <c r="L12" s="8"/>
+      <c r="M12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N12" t="s" s="6">
-        <v>78</v>
-      </c>
-      <c r="O12" t="s" s="6">
+      <c r="N12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P12" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q12" s="10">
         <v>2018</v>
       </c>
-      <c r="R12" t="s" s="6">
+      <c r="R12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S12" t="s" s="6">
+      <c r="T12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T12" t="s" s="6">
+      <c r="U12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U12" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="6">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s" s="6">
-        <v>79</v>
-      </c>
-      <c r="C13" t="s" s="6">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s" s="6">
-        <v>81</v>
-      </c>
-      <c r="E13" t="s" s="6">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s" s="6">
-        <v>82</v>
+      <c r="B13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" t="s" s="6">
+      <c r="I13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J13" t="s" s="6">
+      <c r="K13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K13" t="s" s="9">
+      <c r="L13" s="8"/>
+      <c r="M13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N13" t="s" s="6">
-        <v>83</v>
-      </c>
-      <c r="O13" t="s" s="6">
+      <c r="N13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P13" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q13" s="10">
         <v>2018</v>
       </c>
-      <c r="R13" t="s" s="6">
+      <c r="R13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S13" t="s" s="6">
+      <c r="T13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T13" t="s" s="6">
+      <c r="U13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U13" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="6">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s" s="6">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s" s="6">
-        <v>85</v>
-      </c>
-      <c r="D14" t="s" s="6">
-        <v>86</v>
-      </c>
-      <c r="E14" t="s" s="6">
-        <v>87</v>
-      </c>
-      <c r="F14" t="s" s="6">
-        <v>88</v>
+      <c r="B14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" t="s" s="6">
+      <c r="I14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J14" t="s" s="6">
+      <c r="K14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K14" t="s" s="9">
+      <c r="L14" s="8"/>
+      <c r="M14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N14" t="s" s="6">
-        <v>89</v>
-      </c>
-      <c r="O14" t="s" s="6">
+      <c r="N14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P14" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q14" s="10">
         <v>2018</v>
       </c>
-      <c r="R14" t="s" s="6">
+      <c r="R14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S14" t="s" s="6">
+      <c r="T14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T14" t="s" s="6">
+      <c r="U14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U14" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="6">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s" s="6">
-        <v>90</v>
-      </c>
-      <c r="C15" t="s" s="6">
-        <v>91</v>
-      </c>
-      <c r="D15" t="s" s="6">
-        <v>92</v>
-      </c>
-      <c r="E15" t="s" s="6">
-        <v>93</v>
+      <c r="B15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" t="s" s="6">
+      <c r="I15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J15" t="s" s="6">
+      <c r="K15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K15" t="s" s="9">
+      <c r="L15" s="8"/>
+      <c r="M15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N15" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="O15" t="s" s="6">
+      <c r="N15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P15" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q15" s="10">
         <v>2018</v>
       </c>
-      <c r="R15" t="s" s="6">
+      <c r="R15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S15" t="s" s="6">
+      <c r="T15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T15" t="s" s="6">
+      <c r="U15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U15" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="6">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s" s="6">
-        <v>95</v>
-      </c>
-      <c r="C16" t="s" s="6">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s" s="6">
-        <v>97</v>
-      </c>
-      <c r="E16" t="s" s="6">
-        <v>98</v>
+      <c r="B16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" t="s" s="6">
+      <c r="I16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J16" t="s" s="6">
+      <c r="K16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K16" t="s" s="9">
+      <c r="L16" s="8"/>
+      <c r="M16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N16" t="s" s="6">
-        <v>99</v>
-      </c>
-      <c r="O16" t="s" s="6">
+      <c r="N16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P16" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q16" s="10">
         <v>2018</v>
       </c>
-      <c r="R16" t="s" s="6">
+      <c r="R16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S16" t="s" s="6">
+      <c r="T16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T16" t="s" s="6">
+      <c r="U16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U16" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="6">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="6">
-        <v>100</v>
-      </c>
-      <c r="C17" t="s" s="6">
-        <v>101</v>
-      </c>
-      <c r="D17" t="s" s="6">
-        <v>102</v>
-      </c>
-      <c r="E17" t="s" s="6">
-        <v>103</v>
+      <c r="B17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" t="s" s="6">
+      <c r="I17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J17" t="s" s="6">
+      <c r="K17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K17" t="s" s="9">
+      <c r="L17" s="8"/>
+      <c r="M17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N17" t="s" s="6">
-        <v>104</v>
-      </c>
-      <c r="O17" t="s" s="6">
+      <c r="N17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P17" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q17" s="10">
         <v>2018</v>
       </c>
-      <c r="R17" t="s" s="6">
+      <c r="R17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S17" t="s" s="6">
+      <c r="T17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T17" t="s" s="6">
+      <c r="U17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U17" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="6">
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s" s="6">
-        <v>105</v>
-      </c>
-      <c r="C18" t="s" s="6">
-        <v>106</v>
-      </c>
-      <c r="D18" t="s" s="6">
-        <v>107</v>
+      <c r="B18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" t="s" s="6">
+      <c r="I18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J18" t="s" s="6">
+      <c r="K18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K18" t="s" s="9">
+      <c r="L18" s="8"/>
+      <c r="M18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N18" t="s" s="6">
-        <v>108</v>
-      </c>
-      <c r="O18" t="s" s="6">
+      <c r="N18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P18" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q18" s="10">
         <v>2018</v>
       </c>
-      <c r="R18" t="s" s="6">
+      <c r="R18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S18" t="s" s="6">
+      <c r="T18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T18" t="s" s="6">
+      <c r="U18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U18" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="6">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s" s="6">
-        <v>109</v>
-      </c>
-      <c r="C19" t="s" s="6">
-        <v>110</v>
-      </c>
-      <c r="D19" t="s" s="6">
-        <v>111</v>
-      </c>
-      <c r="E19" t="s" s="6">
-        <v>112</v>
+      <c r="B19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" t="s" s="6">
+      <c r="I19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J19" t="s" s="6">
+      <c r="K19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K19" t="s" s="9">
+      <c r="L19" s="8"/>
+      <c r="M19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="8"/>
-      <c r="M19" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N19" t="s" s="6">
-        <v>113</v>
-      </c>
-      <c r="O19" t="s" s="6">
+      <c r="N19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P19" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q19" s="10">
         <v>2018</v>
       </c>
-      <c r="R19" t="s" s="6">
+      <c r="R19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S19" t="s" s="6">
+      <c r="T19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T19" t="s" s="6">
+      <c r="U19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U19" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="s" s="6">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s" s="6">
-        <v>114</v>
-      </c>
-      <c r="C20" t="s" s="6">
-        <v>115</v>
-      </c>
-      <c r="D20" t="s" s="6">
-        <v>116</v>
-      </c>
-      <c r="E20" t="s" s="6">
-        <v>117</v>
+      <c r="B20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" t="s" s="6">
+      <c r="I20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J20" t="s" s="6">
+      <c r="K20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K20" t="s" s="9">
+      <c r="L20" s="8"/>
+      <c r="M20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="8"/>
-      <c r="M20" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N20" t="s" s="6">
-        <v>118</v>
-      </c>
-      <c r="O20" t="s" s="6">
+      <c r="N20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P20" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q20" s="10">
         <v>2018</v>
       </c>
-      <c r="R20" t="s" s="6">
+      <c r="R20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S20" t="s" s="6">
+      <c r="T20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T20" t="s" s="6">
+      <c r="U20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U20" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="s" s="6">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B21" t="s" s="6">
-        <v>119</v>
-      </c>
-      <c r="C21" t="s" s="6">
-        <v>120</v>
-      </c>
-      <c r="D21" t="s" s="6">
-        <v>121</v>
-      </c>
-      <c r="E21" t="s" s="6">
-        <v>122</v>
+      <c r="B21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" t="s" s="6">
+      <c r="I21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J21" t="s" s="6">
+      <c r="K21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K21" t="s" s="9">
+      <c r="L21" s="8"/>
+      <c r="M21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="8"/>
-      <c r="M21" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N21" t="s" s="6">
-        <v>123</v>
-      </c>
-      <c r="O21" t="s" s="6">
+      <c r="N21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P21" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q21" s="10">
         <v>2018</v>
       </c>
-      <c r="R21" t="s" s="6">
+      <c r="R21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S21" t="s" s="6">
+      <c r="T21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T21" t="s" s="6">
+      <c r="U21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U21" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="s" s="6">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B22" t="s" s="6">
-        <v>124</v>
-      </c>
-      <c r="C22" t="s" s="6">
-        <v>125</v>
-      </c>
-      <c r="D22" t="s" s="6">
-        <v>126</v>
-      </c>
-      <c r="E22" t="s" s="6">
-        <v>127</v>
-      </c>
-      <c r="F22" t="s" s="6">
-        <v>128</v>
+      <c r="B22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" t="s" s="6">
+      <c r="I22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J22" t="s" s="6">
+      <c r="K22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K22" t="s" s="9">
+      <c r="L22" s="8"/>
+      <c r="M22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="8"/>
-      <c r="M22" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N22" t="s" s="6">
-        <v>129</v>
-      </c>
-      <c r="O22" t="s" s="6">
+      <c r="N22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P22" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q22" s="10">
         <v>2018</v>
       </c>
-      <c r="R22" t="s" s="6">
+      <c r="R22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S22" t="s" s="6">
+      <c r="T22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T22" t="s" s="6">
+      <c r="U22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U22" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="6">
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B23" t="s" s="6">
-        <v>130</v>
-      </c>
-      <c r="C23" t="s" s="6">
-        <v>131</v>
-      </c>
-      <c r="D23" t="s" s="6">
-        <v>132</v>
-      </c>
-      <c r="E23" t="s" s="6">
-        <v>133</v>
+      <c r="B23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" t="s" s="6">
+      <c r="I23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J23" t="s" s="6">
+      <c r="K23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K23" t="s" s="9">
+      <c r="L23" s="8"/>
+      <c r="M23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N23" t="s" s="6">
-        <v>134</v>
-      </c>
-      <c r="O23" t="s" s="6">
+      <c r="N23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P23" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q23" s="10">
         <v>2018</v>
       </c>
-      <c r="R23" t="s" s="6">
+      <c r="R23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S23" t="s" s="6">
+      <c r="T23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T23" t="s" s="6">
+      <c r="U23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U23" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="6">
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="s" s="6">
-        <v>135</v>
-      </c>
-      <c r="C24" t="s" s="6">
-        <v>136</v>
-      </c>
-      <c r="D24" t="s" s="6">
-        <v>137</v>
-      </c>
-      <c r="E24" t="s" s="6">
-        <v>133</v>
+      <c r="B24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" t="s" s="6">
+      <c r="I24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J24" t="s" s="6">
+      <c r="K24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K24" t="s" s="9">
+      <c r="L24" s="8"/>
+      <c r="M24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="8"/>
-      <c r="M24" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N24" t="s" s="6">
-        <v>138</v>
-      </c>
-      <c r="O24" t="s" s="6">
+      <c r="N24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P24" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q24" s="10">
         <v>2018</v>
       </c>
-      <c r="R24" t="s" s="6">
+      <c r="R24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S24" t="s" s="6">
+      <c r="T24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T24" t="s" s="6">
+      <c r="U24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U24" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="s" s="6">
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B25" t="s" s="6">
-        <v>139</v>
-      </c>
-      <c r="C25" t="s" s="6">
-        <v>140</v>
-      </c>
-      <c r="D25" t="s" s="6">
-        <v>141</v>
-      </c>
-      <c r="E25" t="s" s="6">
-        <v>142</v>
+      <c r="B25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" t="s" s="6">
+      <c r="I25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J25" t="s" s="6">
+      <c r="K25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K25" t="s" s="9">
+      <c r="L25" s="8"/>
+      <c r="M25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="8"/>
-      <c r="M25" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N25" t="s" s="6">
-        <v>143</v>
-      </c>
-      <c r="O25" t="s" s="6">
+      <c r="N25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P25" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q25" s="10">
         <v>2018</v>
       </c>
-      <c r="R25" t="s" s="6">
+      <c r="R25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S25" t="s" s="6">
+      <c r="T25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T25" t="s" s="6">
+      <c r="U25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U25" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="s" s="6">
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B26" t="s" s="6">
-        <v>144</v>
-      </c>
-      <c r="C26" t="s" s="6">
-        <v>145</v>
-      </c>
-      <c r="D26" t="s" s="6">
-        <v>146</v>
+      <c r="B26" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" t="s" s="6">
+      <c r="I26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J26" t="s" s="6">
+      <c r="K26" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K26" t="s" s="9">
+      <c r="L26" s="8"/>
+      <c r="M26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L26" s="8"/>
-      <c r="M26" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N26" t="s" s="6">
-        <v>147</v>
-      </c>
-      <c r="O26" t="s" s="6">
+      <c r="N26" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P26" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q26" s="10">
         <v>2018</v>
       </c>
-      <c r="R26" t="s" s="6">
+      <c r="R26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S26" t="s" s="6">
+      <c r="T26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T26" t="s" s="6">
+      <c r="U26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U26" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="s" s="6">
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B27" t="s" s="6">
-        <v>148</v>
-      </c>
-      <c r="C27" t="s" s="6">
-        <v>149</v>
-      </c>
-      <c r="D27" t="s" s="6">
-        <v>150</v>
-      </c>
-      <c r="E27" t="s" s="6">
-        <v>87</v>
+      <c r="B27" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" t="s" s="6">
+      <c r="I27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J27" t="s" s="6">
+      <c r="K27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K27" t="s" s="9">
+      <c r="L27" s="8"/>
+      <c r="M27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="8"/>
-      <c r="M27" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N27" t="s" s="6">
-        <v>151</v>
-      </c>
-      <c r="O27" t="s" s="6">
+      <c r="N27" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P27" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q27" s="10">
         <v>2018</v>
       </c>
-      <c r="R27" t="s" s="6">
+      <c r="R27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S27" t="s" s="6">
+      <c r="T27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T27" t="s" s="6">
+      <c r="U27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U27" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="s" s="6">
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B28" t="s" s="6">
-        <v>152</v>
-      </c>
-      <c r="C28" t="s" s="6">
-        <v>153</v>
-      </c>
-      <c r="D28" t="s" s="6">
-        <v>154</v>
-      </c>
-      <c r="E28" t="s" s="6">
-        <v>155</v>
-      </c>
-      <c r="F28" t="s" s="6">
-        <v>133</v>
+      <c r="B28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" t="s" s="6">
+      <c r="I28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J28" t="s" s="6">
+      <c r="K28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K28" t="s" s="9">
+      <c r="L28" s="8"/>
+      <c r="M28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L28" s="8"/>
-      <c r="M28" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N28" t="s" s="6">
-        <v>156</v>
-      </c>
-      <c r="O28" t="s" s="6">
+      <c r="N28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P28" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q28" s="10">
         <v>2018</v>
       </c>
-      <c r="R28" t="s" s="6">
+      <c r="R28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S28" t="s" s="6">
+      <c r="T28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T28" t="s" s="6">
+      <c r="U28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U28" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="s" s="6">
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B29" t="s" s="6">
-        <v>157</v>
-      </c>
-      <c r="C29" t="s" s="6">
-        <v>158</v>
-      </c>
-      <c r="D29" t="s" s="6">
-        <v>159</v>
-      </c>
-      <c r="E29" t="s" s="6">
-        <v>160</v>
+      <c r="B29" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" t="s" s="6">
+      <c r="I29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J29" t="s" s="6">
+      <c r="K29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K29" t="s" s="9">
+      <c r="L29" s="8"/>
+      <c r="M29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="8"/>
-      <c r="M29" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N29" t="s" s="6">
-        <v>161</v>
-      </c>
-      <c r="O29" t="s" s="6">
+      <c r="N29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P29" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q29" s="10">
         <v>2018</v>
       </c>
-      <c r="R29" t="s" s="6">
+      <c r="R29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S29" t="s" s="6">
+      <c r="T29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T29" t="s" s="6">
+      <c r="U29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U29" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="s" s="6">
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B30" t="s" s="6">
-        <v>162</v>
-      </c>
-      <c r="C30" t="s" s="6">
-        <v>163</v>
-      </c>
-      <c r="D30" t="s" s="6">
-        <v>164</v>
-      </c>
-      <c r="E30" t="s" s="6">
-        <v>165</v>
-      </c>
-      <c r="F30" t="s" s="6">
-        <v>166</v>
+      <c r="B30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" t="s" s="6">
+      <c r="I30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J30" t="s" s="6">
+      <c r="K30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K30" t="s" s="9">
+      <c r="L30" s="8"/>
+      <c r="M30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="8"/>
-      <c r="M30" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N30" t="s" s="6">
-        <v>167</v>
-      </c>
-      <c r="O30" t="s" s="6">
+      <c r="N30" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P30" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q30" s="10">
         <v>2018</v>
       </c>
-      <c r="R30" t="s" s="6">
+      <c r="R30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S30" t="s" s="6">
+      <c r="T30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T30" t="s" s="6">
+      <c r="U30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U30" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="6">
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B31" t="s" s="6">
-        <v>168</v>
-      </c>
-      <c r="C31" t="s" s="6">
-        <v>169</v>
-      </c>
-      <c r="D31" t="s" s="6">
-        <v>170</v>
-      </c>
-      <c r="E31" t="s" s="6">
-        <v>171</v>
+      <c r="B31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" t="s" s="6">
+      <c r="I31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J31" t="s" s="6">
+      <c r="K31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K31" t="s" s="9">
+      <c r="L31" s="8"/>
+      <c r="M31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="8"/>
-      <c r="M31" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N31" t="s" s="6">
-        <v>172</v>
-      </c>
-      <c r="O31" t="s" s="6">
+      <c r="N31" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P31" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q31" s="10">
         <v>2018</v>
       </c>
-      <c r="R31" t="s" s="6">
+      <c r="R31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S31" t="s" s="6">
+      <c r="T31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T31" t="s" s="6">
+      <c r="U31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U31" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="s" s="6">
+    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B32" t="s" s="6">
-        <v>173</v>
-      </c>
-      <c r="C32" t="s" s="6">
-        <v>174</v>
-      </c>
-      <c r="D32" t="s" s="6">
-        <v>175</v>
+      <c r="B32" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" t="s" s="6">
+      <c r="I32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J32" t="s" s="6">
+      <c r="K32" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K32" t="s" s="9">
+      <c r="L32" s="8"/>
+      <c r="M32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="8"/>
-      <c r="M32" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N32" t="s" s="6">
-        <v>176</v>
-      </c>
-      <c r="O32" t="s" s="6">
+      <c r="N32" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P32" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q32" s="10">
         <v>2018</v>
       </c>
-      <c r="R32" t="s" s="6">
+      <c r="R32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S32" t="s" s="6">
+      <c r="T32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T32" t="s" s="6">
+      <c r="U32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U32" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="s" s="6">
+    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B33" t="s" s="6">
-        <v>177</v>
-      </c>
-      <c r="C33" t="s" s="6">
-        <v>178</v>
-      </c>
-      <c r="D33" t="s" s="6">
-        <v>179</v>
-      </c>
-      <c r="E33" t="s" s="6">
-        <v>180</v>
+      <c r="B33" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" t="s" s="6">
+      <c r="I33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J33" t="s" s="6">
+      <c r="K33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K33" t="s" s="9">
+      <c r="L33" s="8"/>
+      <c r="M33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="8"/>
-      <c r="M33" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N33" t="s" s="6">
-        <v>181</v>
-      </c>
-      <c r="O33" t="s" s="6">
+      <c r="N33" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P33" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q33" s="10">
         <v>2018</v>
       </c>
-      <c r="R33" t="s" s="6">
+      <c r="R33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S33" t="s" s="6">
+      <c r="T33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T33" t="s" s="6">
+      <c r="U33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U33" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="s" s="6">
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B34" t="s" s="6">
-        <v>182</v>
-      </c>
-      <c r="C34" t="s" s="6">
-        <v>183</v>
-      </c>
-      <c r="D34" t="s" s="6">
-        <v>184</v>
-      </c>
-      <c r="E34" t="s" s="6">
-        <v>185</v>
+      <c r="B34" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" t="s" s="6">
+      <c r="I34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J34" t="s" s="6">
+      <c r="K34" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K34" t="s" s="9">
+      <c r="L34" s="8"/>
+      <c r="M34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L34" s="8"/>
-      <c r="M34" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N34" t="s" s="6">
-        <v>186</v>
-      </c>
-      <c r="O34" t="s" s="6">
+      <c r="N34" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P34" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q34" s="10">
         <v>2018</v>
       </c>
-      <c r="R34" t="s" s="6">
+      <c r="R34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S34" t="s" s="6">
+      <c r="T34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T34" t="s" s="6">
+      <c r="U34" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U34" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="s" s="6">
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B35" t="s" s="6">
-        <v>187</v>
-      </c>
-      <c r="C35" t="s" s="6">
-        <v>188</v>
-      </c>
-      <c r="D35" t="s" s="6">
-        <v>189</v>
+      <c r="B35" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="I35" t="s" s="6">
+      <c r="I35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J35" t="s" s="6">
+      <c r="K35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K35" t="s" s="9">
+      <c r="L35" s="8"/>
+      <c r="M35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="8"/>
-      <c r="M35" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N35" t="s" s="6">
-        <v>190</v>
-      </c>
-      <c r="O35" t="s" s="6">
+      <c r="N35" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P35" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P35" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q35" s="10">
         <v>2018</v>
       </c>
-      <c r="R35" t="s" s="6">
+      <c r="R35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S35" t="s" s="6">
+      <c r="T35" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T35" t="s" s="6">
+      <c r="U35" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U35" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="s" s="6">
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B36" t="s" s="6">
-        <v>191</v>
-      </c>
-      <c r="C36" t="s" s="6">
-        <v>192</v>
-      </c>
-      <c r="D36" t="s" s="6">
-        <v>193</v>
+      <c r="B36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" t="s" s="6">
+      <c r="I36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J36" t="s" s="6">
+      <c r="K36" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="K36" t="s" s="9">
-        <v>23</v>
       </c>
       <c r="L36" s="10">
         <v>1863</v>
       </c>
-      <c r="M36" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N36" t="s" s="6">
-        <v>194</v>
-      </c>
-      <c r="O36" t="s" s="6">
+      <c r="M36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P36" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q36" s="10">
         <v>2018</v>
       </c>
-      <c r="R36" t="s" s="6">
+      <c r="R36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S36" t="s" s="6">
+      <c r="T36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T36" t="s" s="6">
+      <c r="U36" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U36" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="s" s="6">
+    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B37" t="s" s="6">
-        <v>195</v>
-      </c>
-      <c r="C37" t="s" s="6">
-        <v>196</v>
-      </c>
-      <c r="D37" t="s" s="6">
-        <v>197</v>
-      </c>
-      <c r="E37" t="s" s="6">
-        <v>198</v>
+      <c r="B37" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" t="s" s="6">
+      <c r="I37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J37" t="s" s="6">
+      <c r="K37" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K37" t="s" s="9">
+      <c r="L37" s="8"/>
+      <c r="M37" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L37" s="8"/>
-      <c r="M37" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N37" t="s" s="6">
-        <v>199</v>
-      </c>
-      <c r="O37" t="s" s="6">
+      <c r="N37" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P37" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P37" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q37" s="10">
         <v>2018</v>
       </c>
-      <c r="R37" t="s" s="6">
+      <c r="R37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S37" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S37" t="s" s="6">
+      <c r="T37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T37" t="s" s="6">
+      <c r="U37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U37" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="s" s="6">
+    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B38" t="s" s="6">
-        <v>200</v>
-      </c>
-      <c r="C38" t="s" s="6">
-        <v>201</v>
-      </c>
-      <c r="D38" t="s" s="6">
-        <v>202</v>
-      </c>
-      <c r="E38" t="s" s="6">
-        <v>203</v>
+      <c r="B38" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" t="s" s="6">
+      <c r="I38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J38" t="s" s="6">
+      <c r="K38" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K38" t="s" s="9">
+      <c r="L38" s="8"/>
+      <c r="M38" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L38" s="8"/>
-      <c r="M38" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N38" t="s" s="6">
-        <v>204</v>
-      </c>
-      <c r="O38" t="s" s="6">
+      <c r="N38" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P38" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P38" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q38" s="10">
         <v>2018</v>
       </c>
-      <c r="R38" t="s" s="6">
+      <c r="R38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S38" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S38" t="s" s="6">
+      <c r="T38" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T38" t="s" s="6">
+      <c r="U38" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U38" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" t="s" s="6">
+    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B39" t="s" s="6">
-        <v>205</v>
-      </c>
-      <c r="C39" t="s" s="6">
-        <v>206</v>
-      </c>
-      <c r="D39" t="s" s="6">
-        <v>207</v>
-      </c>
-      <c r="E39" t="s" s="6">
-        <v>208</v>
+      <c r="B39" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
-      <c r="I39" t="s" s="6">
+      <c r="I39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J39" t="s" s="6">
+      <c r="K39" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K39" t="s" s="9">
+      <c r="L39" s="8"/>
+      <c r="M39" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="8"/>
-      <c r="M39" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N39" t="s" s="6">
-        <v>209</v>
-      </c>
-      <c r="O39" t="s" s="6">
+      <c r="N39" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P39" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P39" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q39" s="10">
         <v>2018</v>
       </c>
-      <c r="R39" t="s" s="6">
+      <c r="R39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S39" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S39" t="s" s="6">
+      <c r="T39" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T39" t="s" s="6">
+      <c r="U39" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U39" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="s" s="6">
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B40" t="s" s="6">
-        <v>210</v>
-      </c>
-      <c r="C40" t="s" s="6">
-        <v>211</v>
-      </c>
-      <c r="D40" t="s" s="6">
-        <v>212</v>
-      </c>
-      <c r="E40" t="s" s="6">
-        <v>213</v>
+      <c r="B40" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" t="s" s="6">
+      <c r="I40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J40" t="s" s="6">
+      <c r="K40" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K40" t="s" s="9">
+      <c r="L40" s="8"/>
+      <c r="M40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L40" s="8"/>
-      <c r="M40" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N40" t="s" s="6">
-        <v>214</v>
-      </c>
-      <c r="O40" t="s" s="6">
+      <c r="N40" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P40" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P40" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q40" s="10">
         <v>2018</v>
       </c>
-      <c r="R40" t="s" s="6">
+      <c r="R40" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S40" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S40" t="s" s="6">
+      <c r="T40" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T40" t="s" s="6">
+      <c r="U40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U40" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="s" s="6">
+    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B41" t="s" s="6">
-        <v>215</v>
-      </c>
-      <c r="C41" t="s" s="6">
-        <v>216</v>
-      </c>
-      <c r="D41" t="s" s="6">
-        <v>217</v>
-      </c>
-      <c r="E41" t="s" s="6">
-        <v>218</v>
+      <c r="B41" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" t="s" s="6">
+      <c r="I41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J41" t="s" s="6">
+      <c r="K41" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K41" t="s" s="9">
+      <c r="L41" s="8"/>
+      <c r="M41" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L41" s="8"/>
-      <c r="M41" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N41" t="s" s="6">
-        <v>219</v>
-      </c>
-      <c r="O41" t="s" s="6">
+      <c r="N41" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P41" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P41" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q41" s="10">
         <v>2018</v>
       </c>
-      <c r="R41" t="s" s="6">
+      <c r="R41" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S41" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S41" t="s" s="6">
+      <c r="T41" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T41" t="s" s="6">
+      <c r="U41" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U41" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="s" s="6">
+    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B42" t="s" s="6">
-        <v>220</v>
-      </c>
-      <c r="C42" t="s" s="6">
-        <v>221</v>
-      </c>
-      <c r="D42" t="s" s="6">
-        <v>222</v>
+      <c r="B42" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" t="s" s="6">
+      <c r="I42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J42" t="s" s="6">
+      <c r="K42" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K42" t="s" s="9">
+      <c r="L42" s="8"/>
+      <c r="M42" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L42" s="8"/>
-      <c r="M42" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N42" t="s" s="6">
-        <v>223</v>
-      </c>
-      <c r="O42" t="s" s="6">
+      <c r="N42" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P42" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q42" s="10">
         <v>2018</v>
       </c>
-      <c r="R42" t="s" s="6">
+      <c r="R42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S42" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S42" t="s" s="6">
+      <c r="T42" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T42" t="s" s="6">
+      <c r="U42" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U42" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="s" s="6">
+    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B43" t="s" s="6">
-        <v>224</v>
-      </c>
-      <c r="C43" t="s" s="6">
-        <v>225</v>
-      </c>
-      <c r="D43" t="s" s="6">
-        <v>226</v>
-      </c>
-      <c r="E43" t="s" s="6">
-        <v>227</v>
+      <c r="B43" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" t="s" s="6">
+      <c r="I43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J43" t="s" s="6">
+      <c r="K43" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K43" t="s" s="9">
+      <c r="L43" s="8"/>
+      <c r="M43" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L43" s="8"/>
-      <c r="M43" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N43" t="s" s="6">
-        <v>228</v>
-      </c>
-      <c r="O43" t="s" s="6">
+      <c r="N43" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P43" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P43" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q43" s="10">
         <v>2018</v>
       </c>
-      <c r="R43" t="s" s="6">
+      <c r="R43" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S43" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S43" t="s" s="6">
+      <c r="T43" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T43" t="s" s="6">
+      <c r="U43" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U43" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="s" s="6">
+    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B44" t="s" s="6">
-        <v>229</v>
-      </c>
-      <c r="C44" t="s" s="6">
-        <v>230</v>
-      </c>
-      <c r="D44" t="s" s="6">
-        <v>231</v>
-      </c>
-      <c r="E44" t="s" s="6">
-        <v>232</v>
+      <c r="B44" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-      <c r="I44" t="s" s="6">
+      <c r="I44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J44" t="s" s="6">
+      <c r="K44" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K44" t="s" s="9">
+      <c r="L44" s="8"/>
+      <c r="M44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L44" s="8"/>
-      <c r="M44" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N44" t="s" s="6">
-        <v>233</v>
-      </c>
-      <c r="O44" t="s" s="6">
+      <c r="N44" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P44" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P44" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q44" s="10">
         <v>2018</v>
       </c>
-      <c r="R44" t="s" s="6">
+      <c r="R44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S44" t="s" s="6">
+      <c r="T44" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T44" t="s" s="6">
+      <c r="U44" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U44" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="s" s="6">
+    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B45" t="s" s="6">
-        <v>234</v>
-      </c>
-      <c r="C45" t="s" s="6">
-        <v>235</v>
-      </c>
-      <c r="D45" t="s" s="6">
-        <v>236</v>
-      </c>
-      <c r="E45" t="s" s="6">
-        <v>237</v>
+      <c r="B45" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" t="s" s="6">
+      <c r="I45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J45" t="s" s="6">
+      <c r="K45" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K45" t="s" s="9">
+      <c r="L45" s="8"/>
+      <c r="M45" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="8"/>
-      <c r="M45" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N45" t="s" s="6">
-        <v>238</v>
-      </c>
-      <c r="O45" t="s" s="6">
+      <c r="N45" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P45" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P45" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q45" s="10">
         <v>2018</v>
       </c>
-      <c r="R45" t="s" s="6">
+      <c r="R45" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S45" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S45" t="s" s="6">
+      <c r="T45" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T45" t="s" s="6">
+      <c r="U45" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U45" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="s" s="6">
+    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B46" t="s" s="6">
-        <v>239</v>
-      </c>
-      <c r="C46" t="s" s="6">
-        <v>240</v>
-      </c>
-      <c r="D46" t="s" s="6">
-        <v>241</v>
-      </c>
-      <c r="E46" t="s" s="6">
-        <v>242</v>
+      <c r="B46" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
-      <c r="I46" t="s" s="6">
+      <c r="I46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J46" t="s" s="6">
+      <c r="K46" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K46" t="s" s="9">
+      <c r="L46" s="8"/>
+      <c r="M46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L46" s="8"/>
-      <c r="M46" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N46" t="s" s="6">
-        <v>243</v>
-      </c>
-      <c r="O46" t="s" s="6">
+      <c r="N46" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P46" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P46" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q46" s="10">
         <v>2018</v>
       </c>
-      <c r="R46" t="s" s="6">
+      <c r="R46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S46" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S46" t="s" s="6">
+      <c r="T46" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T46" t="s" s="6">
+      <c r="U46" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U46" t="s" s="6">
-        <v>31</v>
-      </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" t="s" s="6">
+    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B47" t="s" s="6">
-        <v>244</v>
-      </c>
-      <c r="C47" t="s" s="6">
-        <v>245</v>
-      </c>
-      <c r="D47" t="s" s="6">
-        <v>246</v>
+      <c r="B47" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
-      <c r="I47" t="s" s="6">
+      <c r="I47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J47" t="s" s="6">
+      <c r="K47" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K47" t="s" s="9">
+      <c r="L47" s="8"/>
+      <c r="M47" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L47" s="8"/>
-      <c r="M47" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="N47" t="s" s="6">
-        <v>247</v>
-      </c>
-      <c r="O47" t="s" s="6">
+      <c r="N47" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P47" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="P47" t="s" s="6">
-        <v>27</v>
       </c>
       <c r="Q47" s="10">
         <v>2018</v>
       </c>
-      <c r="R47" t="s" s="6">
+      <c r="R47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S47" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S47" t="s" s="6">
+      <c r="T47" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T47" t="s" s="6">
+      <c r="U47" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="U47" t="s" s="6">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
